--- a/SEIR_2_wave/data/calibration/hosp_data.xlsx
+++ b/SEIR_2_wave/data/calibration/hosp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284DCAE-3D22-4850-B3E1-05F4F7FA59AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B442DD-2DB1-4B88-9F46-EC489EFBD95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="430" windowWidth="9570" windowHeight="9770" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,711 +450,708 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>16.84</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>1-E2-D2</f>
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2" si="0">1-H2-G2</f>
-        <v>0.98399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A52" si="1">A2+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.33</v>
+        <v>0.96</v>
       </c>
       <c r="C3">
-        <v>22.67</v>
+        <v>16.84</v>
       </c>
       <c r="D3">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F3">
         <f>1-E3-D3</f>
-        <v>0.96399999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1.6E-2</v>
       </c>
-      <c r="H3">
-        <v>2.9000000000000001E-2</v>
-      </c>
       <c r="I3">
-        <f>1-H3-G3</f>
-        <v>0.95499999999999996</v>
+        <f t="shared" ref="I3" si="0">1-H3-G3</f>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="A4:A53" si="1">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="C4">
-        <v>24.24</v>
+        <v>22.67</v>
       </c>
       <c r="D4">
-        <v>0.108</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F52" si="2">1-E4-D4</f>
-        <v>0.88300000000000001</v>
+        <f>1-E4-D4</f>
+        <v>0.96399999999999997</v>
       </c>
       <c r="G4">
-        <v>4.3999999999999997E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H4">
-        <v>4.7E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I52" si="3">1-H4-G4</f>
-        <v>0.90899999999999992</v>
+        <f>1-H4-G4</f>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
-        <v>25.63</v>
+        <v>24.24</v>
       </c>
       <c r="D5">
-        <v>0.19500000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.79499999999999993</v>
+        <f t="shared" ref="F5:F53" si="2">1-E5-D5</f>
+        <v>0.88300000000000001</v>
       </c>
       <c r="G5">
-        <v>8.5999999999999993E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H5">
-        <v>5.8999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.85500000000000009</v>
+        <f t="shared" ref="I5:I53" si="3">1-H5-G5</f>
+        <v>0.90899999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="C6">
-        <v>26.74</v>
+        <v>25.63</v>
       </c>
       <c r="D6">
-        <v>0.27700000000000002</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.71199999999999997</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="G6">
-        <v>0.124</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H6">
-        <v>7.1999999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.80400000000000005</v>
+        <v>0.85500000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="C7">
-        <v>27.72</v>
+        <v>26.74</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E7">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.61099999999999999</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="G7">
-        <v>0.16500000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="H7">
-        <v>8.3000000000000004E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.752</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="C8">
-        <v>28.45</v>
+        <v>27.72</v>
       </c>
       <c r="D8">
-        <v>0.46500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="E8">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.51800000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G8">
-        <v>0.20499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H8">
-        <v>9.8000000000000004E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.69700000000000006</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="C9">
-        <v>29.11</v>
+        <v>28.45</v>
       </c>
       <c r="D9">
-        <v>0.54200000000000004</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E9">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.44099999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="G9">
-        <v>0.246</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H9">
-        <v>0.112</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.64200000000000002</v>
+        <v>0.69700000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="C10">
-        <v>29.63</v>
+        <v>29.11</v>
       </c>
       <c r="D10">
-        <v>0.61499999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="E10">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.36799999999999999</v>
+        <v>0.44099999999999995</v>
       </c>
       <c r="G10">
-        <v>0.30099999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="H10">
-        <v>0.121</v>
+        <v>0.112</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.57800000000000007</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="C11">
-        <v>30.03</v>
+        <v>29.63</v>
       </c>
       <c r="D11">
-        <v>0.67800000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E11">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.30499999999999994</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G11">
-        <v>0.35599999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H11">
-        <v>0.13100000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.51300000000000001</v>
+        <v>0.57800000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="C12">
-        <v>30.53</v>
+        <v>30.03</v>
       </c>
       <c r="D12">
-        <v>0.73299999999999998</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E12">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.30499999999999994</v>
       </c>
       <c r="G12">
-        <v>0.39600000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="H12">
-        <v>0.13800000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.46599999999999997</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="C13">
-        <v>30.8</v>
+        <v>30.53</v>
       </c>
       <c r="D13">
-        <v>0.77800000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E13">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.20399999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G13">
-        <v>0.44600000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H13">
-        <v>0.15</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.40399999999999997</v>
+        <v>0.46599999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="C14">
-        <v>30.98</v>
+        <v>30.8</v>
       </c>
       <c r="D14">
-        <v>0.81399999999999995</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="E14">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.16800000000000004</v>
+        <v>0.20399999999999996</v>
       </c>
       <c r="G14">
-        <v>0.49099999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H14">
-        <v>0.159</v>
+        <v>0.15</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.40399999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2.2599999999999998</v>
+        <v>2.23</v>
       </c>
       <c r="C15">
-        <v>31.19</v>
+        <v>30.98</v>
       </c>
       <c r="D15">
-        <v>0.84099999999999997</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E15">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.16800000000000004</v>
       </c>
       <c r="G15">
-        <v>0.52800000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="H15">
-        <v>0.16300000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.30899999999999994</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2.2599999999999998</v>
       </c>
       <c r="C16">
-        <v>31.37</v>
+        <v>31.19</v>
       </c>
       <c r="D16">
-        <v>0.85799999999999998</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E16">
         <v>1.9E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.123</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G16">
-        <v>0.55400000000000005</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="H16">
-        <v>0.16600000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.27999999999999992</v>
+        <v>0.30899999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C17">
-        <v>31.48</v>
+        <v>31.37</v>
       </c>
       <c r="D17">
-        <v>0.875</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E17">
         <v>1.9E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.10599999999999998</v>
+        <v>0.123</v>
       </c>
       <c r="G17">
-        <v>0.60099999999999998</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="H17">
-        <v>0.17</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.22899999999999998</v>
+        <v>0.27999999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>2.2799999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="C18">
-        <v>31.54</v>
+        <v>31.48</v>
       </c>
       <c r="D18">
-        <v>0.89700000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="E18">
         <v>1.9E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>8.3999999999999964E-2</v>
+        <v>0.10599999999999998</v>
       </c>
       <c r="G18">
-        <v>0.63200000000000001</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="H18">
-        <v>0.17299999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.19499999999999995</v>
+        <v>0.22899999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2.2799999999999998</v>
       </c>
       <c r="C19">
-        <v>31.66</v>
+        <v>31.54</v>
       </c>
       <c r="D19">
-        <v>0.90400000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E19">
         <v>1.9E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>7.6999999999999957E-2</v>
+        <v>8.3999999999999964E-2</v>
       </c>
       <c r="G19">
-        <v>0.64700000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H19">
-        <v>0.17599999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.17700000000000005</v>
+        <v>0.19499999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>2.2999999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C20">
-        <v>31.72</v>
+        <v>31.66</v>
       </c>
       <c r="D20">
-        <v>0.90900000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="E20">
-        <v>2.1000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>6.9999999999999951E-2</v>
+        <v>7.6999999999999957E-2</v>
       </c>
       <c r="G20">
-        <v>0.66500000000000004</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H20">
-        <v>0.17799999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.15700000000000003</v>
+        <v>0.17700000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2.2999999999999998</v>
       </c>
       <c r="C21">
-        <v>31.82</v>
+        <v>31.72</v>
       </c>
       <c r="D21">
-        <v>0.92100000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E21">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>5.699999999999994E-2</v>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="G21">
-        <v>0.68200000000000005</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H21">
-        <v>0.184</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.13400000000000001</v>
+        <v>0.15700000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2.31</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C22">
         <v>31.82</v>
       </c>
       <c r="D22">
-        <v>0.93200000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E22">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>4.599999999999993E-2</v>
+        <v>5.699999999999994E-2</v>
       </c>
       <c r="G22">
-        <v>0.69799999999999995</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H22">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.1160000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2.31</v>
       </c>
       <c r="C23">
-        <v>31.86</v>
+        <v>31.82</v>
       </c>
       <c r="D23">
-        <v>0.93400000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E23">
-        <v>2.4E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>4.1999999999999926E-2</v>
+        <v>4.599999999999993E-2</v>
       </c>
       <c r="G23">
-        <v>0.70599999999999996</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="H23">
-        <v>0.189</v>
+        <v>0.186</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.10499999999999998</v>
+        <v>0.1160000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2.31</v>
@@ -1163,30 +1160,30 @@
         <v>31.86</v>
       </c>
       <c r="D24">
-        <v>0.93600000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="E24">
         <v>2.4E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>3.9999999999999925E-2</v>
+        <v>4.1999999999999926E-2</v>
       </c>
       <c r="G24">
-        <v>0.71299999999999997</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H24">
         <v>0.189</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>9.7999999999999976E-2</v>
+        <v>0.10499999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2.31</v>
@@ -1195,30 +1192,30 @@
         <v>31.86</v>
       </c>
       <c r="D25">
-        <v>0.93799999999999994</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E25">
         <v>2.4E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>3.8000000000000034E-2</v>
+        <v>3.9999999999999925E-2</v>
       </c>
       <c r="G25">
-        <v>0.72599999999999998</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H25">
         <v>0.189</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>8.4999999999999964E-2</v>
+        <v>9.7999999999999976E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2.31</v>
@@ -1227,33 +1224,33 @@
         <v>31.86</v>
       </c>
       <c r="D26">
-        <v>0.94399999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="E26">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>3.1000000000000028E-2</v>
+        <v>3.8000000000000034E-2</v>
       </c>
       <c r="G26">
-        <v>0.73199999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="H26">
         <v>0.189</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>7.8999999999999959E-2</v>
+        <v>8.4999999999999964E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2.3199999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="C27">
         <v>31.86</v>
@@ -1269,20 +1266,20 @@
         <v>3.1000000000000028E-2</v>
       </c>
       <c r="G27">
-        <v>0.73599999999999999</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="H27">
-        <v>0.193</v>
+        <v>0.189</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>7.0999999999999952E-2</v>
+        <v>7.8999999999999959E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2.3199999999999998</v>
@@ -1291,30 +1288,30 @@
         <v>31.86</v>
       </c>
       <c r="D28">
-        <v>0.94899999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E28">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>2.5000000000000022E-2</v>
+        <v>3.1000000000000028E-2</v>
       </c>
       <c r="G28">
-        <v>0.74299999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="H28">
-        <v>0.19500000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>6.1999999999999944E-2</v>
+        <v>7.0999999999999952E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2.3199999999999998</v>
@@ -1333,20 +1330,20 @@
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G29">
-        <v>0.745</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="H29">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>5.5000000000000049E-2</v>
+        <v>6.1999999999999944E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2.3199999999999998</v>
@@ -1365,20 +1362,20 @@
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="G30">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="H30">
-        <v>0.20300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>4.8999999999999932E-2</v>
+        <v>5.5000000000000049E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2.3199999999999998</v>
@@ -1387,30 +1384,30 @@
         <v>31.86</v>
       </c>
       <c r="D31">
-        <v>0.95099999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E31">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>2.200000000000002E-2</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="G31">
-        <v>0.754</v>
+        <v>0.748</v>
       </c>
       <c r="H31">
-        <v>0.20599999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>4.8999999999999932E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>2.3199999999999998</v>
@@ -1422,27 +1419,27 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="E32">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>2.1000000000000019E-2</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G32">
-        <v>0.75700000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="H32">
         <v>0.20599999999999999</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>3.7000000000000033E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2.3199999999999998</v>
@@ -1451,30 +1448,30 @@
         <v>31.86</v>
       </c>
       <c r="D33">
-        <v>0.95599999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E33">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>1.5000000000000013E-2</v>
+        <v>2.1000000000000019E-2</v>
       </c>
       <c r="G33">
-        <v>0.76</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="H33">
-        <v>0.20899999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>3.1000000000000028E-2</v>
+        <v>3.7000000000000033E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>2.3199999999999998</v>
@@ -1483,14 +1480,14 @@
         <v>31.86</v>
       </c>
       <c r="D34">
-        <v>0.95799999999999996</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E34">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>1.3000000000000012E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="G34">
         <v>0.76</v>
@@ -1506,7 +1503,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2.3199999999999998</v>
@@ -1515,14 +1512,14 @@
         <v>31.86</v>
       </c>
       <c r="D35">
-        <v>0.96099999999999997</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="E35">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="G35">
         <v>0.76</v>
@@ -1538,7 +1535,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2.3199999999999998</v>
@@ -1547,30 +1544,30 @@
         <v>31.86</v>
       </c>
       <c r="D36">
-        <v>0.96299999999999997</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E36">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>8.0000000000000071E-3</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G36">
         <v>0.76</v>
       </c>
       <c r="H36">
-        <v>0.21299999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>2.7000000000000024E-2</v>
+        <v>3.1000000000000028E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2.3199999999999998</v>
@@ -1579,30 +1576,30 @@
         <v>31.86</v>
       </c>
       <c r="D37">
-        <v>0.96599999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="E37">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044E-3</v>
+        <v>8.0000000000000071E-3</v>
       </c>
       <c r="G37">
-        <v>0.76400000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H37">
         <v>0.21299999999999999</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>2.300000000000002E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>2.3199999999999998</v>
@@ -1621,20 +1618,20 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="G38">
-        <v>0.76800000000000002</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="H38">
-        <v>0.217</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>1.5000000000000013E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2.3199999999999998</v>
@@ -1653,20 +1650,20 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="G39">
-        <v>0.77600000000000002</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="H39">
         <v>0.217</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>7.0000000000000062E-3</v>
+        <v>1.5000000000000013E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2.3199999999999998</v>
@@ -1675,14 +1672,14 @@
         <v>31.86</v>
       </c>
       <c r="D40">
-        <v>0.97099999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="E40">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="G40">
         <v>0.77600000000000002</v>
@@ -1698,7 +1695,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2.3199999999999998</v>
@@ -1730,7 +1727,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>2.3199999999999998</v>
@@ -1762,7 +1759,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2.3199999999999998</v>
@@ -1781,20 +1778,20 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.77900000000000003</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="H43">
         <v>0.217</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-3</v>
+        <v>7.0000000000000062E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2.3199999999999998</v>
@@ -1826,7 +1823,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2.3199999999999998</v>
@@ -1845,20 +1842,20 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.78300000000000003</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="H45">
         <v>0.217</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0000000000000036E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2.3199999999999998</v>
@@ -1890,7 +1887,7 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>2.3199999999999998</v>
@@ -1922,7 +1919,7 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2.3199999999999998</v>
@@ -1954,7 +1951,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>2.3199999999999998</v>
@@ -1986,7 +1983,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2.3199999999999998</v>
@@ -2018,7 +2015,7 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2.3199999999999998</v>
@@ -2050,7 +2047,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>2.3199999999999998</v>
@@ -2075,6 +2072,38 @@
         <v>0.217</v>
       </c>
       <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C53">
+        <v>31.86</v>
+      </c>
+      <c r="D53">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E53">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H53">
+        <v>0.217</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/SEIR_2_wave/data/calibration/hosp_data.xlsx
+++ b/SEIR_2_wave/data/calibration/hosp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B442DD-2DB1-4B88-9F46-EC489EFBD95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8D4EF-3104-4889-BF90-F7DC81D42F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -112,6 +112,1021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P_D_Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9854-48BF-B0FC-B9A3EBD02004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="526756536"/>
+        <c:axId val="526756864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526756536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526756864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526756864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526756536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6988F29B-4E34-41FD-988B-C93DE41EDDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,11 +1602,11 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.79499999999999993</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="G6">
         <v>8.5999999999999993E-2</v>
@@ -619,11 +1634,11 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="E7">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.71199999999999997</v>
+        <v>0.71</v>
       </c>
       <c r="G7">
         <v>0.124</v>
@@ -683,11 +1698,11 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="E9">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.51800000000000002</v>
+        <v>0.51899999999999991</v>
       </c>
       <c r="G9">
         <v>0.20499999999999999</v>
@@ -747,11 +1762,11 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="E11">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.36799999999999999</v>
+        <v>0.36750000000000005</v>
       </c>
       <c r="G11">
         <v>0.30099999999999999</v>
@@ -779,11 +1794,11 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="E12">
-        <v>1.7000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.30499999999999994</v>
+        <v>0.30299999999999994</v>
       </c>
       <c r="G12">
         <v>0.35599999999999998</v>
@@ -811,11 +1826,11 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E13">
-        <v>1.7000000000000001E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.24750000000000005</v>
       </c>
       <c r="G13">
         <v>0.39600000000000002</v>
@@ -843,11 +1858,11 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="E14">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.20399999999999996</v>
+        <v>0.20099999999999996</v>
       </c>
       <c r="G14">
         <v>0.44600000000000001</v>
@@ -875,11 +1890,11 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="E15">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.16800000000000004</v>
+        <v>0.16400000000000003</v>
       </c>
       <c r="G15">
         <v>0.49099999999999999</v>
@@ -907,11 +1922,11 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="E16">
-        <v>1.9E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.13650000000000007</v>
       </c>
       <c r="G16">
         <v>0.52800000000000002</v>
@@ -939,11 +1954,11 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="E17">
-        <v>1.9E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.123</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="G17">
         <v>0.55400000000000005</v>
@@ -971,11 +1986,11 @@
         <v>0.875</v>
       </c>
       <c r="E18">
-        <v>1.9E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.10599999999999998</v>
+        <v>0.10050000000000003</v>
       </c>
       <c r="G18">
         <v>0.60099999999999998</v>
@@ -1003,11 +2018,11 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="E19">
-        <v>1.9E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>8.3999999999999964E-2</v>
+        <v>7.6500000000000012E-2</v>
       </c>
       <c r="G19">
         <v>0.63200000000000001</v>
@@ -1035,11 +2050,11 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="E20">
-        <v>1.9E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>7.6999999999999957E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="G20">
         <v>0.64700000000000002</v>
@@ -1067,11 +2082,11 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="E21">
-        <v>2.1000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>6.9999999999999951E-2</v>
+        <v>6.2999999999999945E-2</v>
       </c>
       <c r="G21">
         <v>0.66500000000000004</v>
@@ -1099,11 +2114,11 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="E22">
-        <v>2.1999999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>5.699999999999994E-2</v>
+        <v>5.0499999999999989E-2</v>
       </c>
       <c r="G22">
         <v>0.68200000000000005</v>
@@ -1131,11 +2146,11 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="E23">
-        <v>2.1999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>4.599999999999993E-2</v>
+        <v>3.8999999999999924E-2</v>
       </c>
       <c r="G23">
         <v>0.69799999999999995</v>
@@ -1163,11 +2178,11 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="E24">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>4.1999999999999926E-2</v>
+        <v>3.6999999999999922E-2</v>
       </c>
       <c r="G24">
         <v>0.70599999999999996</v>
@@ -1195,11 +2210,11 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="E25">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>3.9999999999999925E-2</v>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="G25">
         <v>0.71299999999999997</v>
@@ -1227,11 +2242,11 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="E26">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>3.8000000000000034E-2</v>
+        <v>3.3000000000000029E-2</v>
       </c>
       <c r="G26">
         <v>0.72599999999999998</v>
@@ -1259,11 +2274,11 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="E27">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>3.1000000000000028E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="G27">
         <v>0.73199999999999998</v>
@@ -1291,11 +2306,11 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="E28">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>3.1000000000000028E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="G28">
         <v>0.73599999999999999</v>
@@ -1323,11 +2338,11 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="E29">
-        <v>2.5999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>2.5000000000000022E-2</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G29">
         <v>0.74299999999999999</v>
@@ -1355,11 +2370,11 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="E30">
-        <v>2.5999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>2.5000000000000022E-2</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G30">
         <v>0.745</v>
@@ -1387,11 +2402,11 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="E31">
-        <v>2.5999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>2.5000000000000022E-2</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="G31">
         <v>0.748</v>
@@ -1419,11 +2434,11 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="E32">
-        <v>2.7E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>2.200000000000002E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G32">
         <v>0.754</v>
@@ -1451,11 +2466,11 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="E33">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>2.1000000000000019E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G33">
         <v>0.75700000000000001</v>
@@ -2110,5 +3125,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SEIR_2_wave/data/calibration/hosp_data.xlsx
+++ b/SEIR_2_wave/data/calibration/hosp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8D4EF-3104-4889-BF90-F7DC81D42F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5945F8B-1261-4AEC-9030-512FCCDD410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -75,12 +75,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,36 +135,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -203,61 +180,61 @@
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>2.1499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.95E-2</c:v>
+                  <c:v>2.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>2.41E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2499999999999999E-2</c:v>
+                  <c:v>2.58E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4500000000000001E-2</c:v>
+                  <c:v>2.69E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6499999999999999E-2</c:v>
+                  <c:v>2.7900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.75E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8500000000000001E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.9000000000000001E-2</c:v>
@@ -359,6 +336,193 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9854-48BF-B0FC-B9A3EBD02004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0164-4CD9-830F-A60A7F53D307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1092,16 +1256,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1428,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,7 +1611,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1456,7 +1620,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1538,11 +1702,11 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4">
         <f>1-E4-D4</f>
-        <v>0.96399999999999997</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="G4">
         <v>1.6E-2</v>
@@ -1570,11 +1734,11 @@
         <v>0.108</v>
       </c>
       <c r="E5">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F53" si="2">1-E5-D5</f>
-        <v>0.88300000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G5">
         <v>4.3999999999999997E-2</v>
@@ -1602,11 +1766,11 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E6">
-        <v>1.0999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.79400000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="G6">
         <v>8.5999999999999993E-2</v>
@@ -1634,11 +1798,11 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="E7">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.71</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="G7">
         <v>0.124</v>
@@ -1666,21 +1830,21 @@
         <v>0.375</v>
       </c>
       <c r="E8">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.61099999999999999</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="G8">
         <v>0.16500000000000001</v>
       </c>
       <c r="H8">
-        <v>8.3000000000000004E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.752</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1698,21 +1862,21 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="E9">
-        <v>1.6E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.51899999999999991</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G9">
         <v>0.20499999999999999</v>
       </c>
       <c r="H9">
-        <v>9.8000000000000004E-2</v>
+        <v>0.105</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.69700000000000006</v>
+        <v>0.69000000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1730,21 +1894,21 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="E10">
-        <v>1.7000000000000001E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.44099999999999995</v>
+        <v>0.4365</v>
       </c>
       <c r="G10">
         <v>0.246</v>
       </c>
       <c r="H10">
-        <v>0.112</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.64200000000000002</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1762,21 +1926,21 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="E11">
-        <v>1.7500000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.36750000000000005</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G11">
         <v>0.30099999999999999</v>
       </c>
       <c r="H11">
-        <v>0.121</v>
+        <v>0.128</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.57800000000000007</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1794,21 +1958,21 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="E12">
-        <v>1.9E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.30299999999999994</v>
+        <v>0.29919999999999991</v>
       </c>
       <c r="G12">
         <v>0.35599999999999998</v>
       </c>
       <c r="H12">
-        <v>0.13100000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.51300000000000001</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1826,21 +1990,21 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E13">
-        <v>1.95E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.24750000000000005</v>
+        <v>0.24350000000000005</v>
       </c>
       <c r="G13">
         <v>0.39600000000000002</v>
       </c>
       <c r="H13">
-        <v>0.13800000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.46599999999999997</v>
+        <v>0.45699999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1858,21 +2022,21 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="E14">
-        <v>2.1000000000000001E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.20099999999999996</v>
+        <v>0.19789999999999996</v>
       </c>
       <c r="G14">
         <v>0.44600000000000001</v>
       </c>
       <c r="H14">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.40399999999999997</v>
+        <v>0.39899999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1890,21 +2054,21 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="E15">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.16400000000000003</v>
+        <v>0.16100000000000003</v>
       </c>
       <c r="G15">
         <v>0.49099999999999999</v>
       </c>
       <c r="H15">
-        <v>0.159</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1922,21 +2086,21 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="E16">
-        <v>2.2499999999999999E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.13650000000000007</v>
+        <v>0.13319999999999999</v>
       </c>
       <c r="G16">
         <v>0.52800000000000002</v>
       </c>
       <c r="H16">
-        <v>0.16300000000000001</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.30899999999999994</v>
+        <v>0.29800000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1954,21 +2118,21 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="E17">
-        <v>2.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.11799999999999999</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="G17">
         <v>0.55400000000000005</v>
       </c>
       <c r="H17">
-        <v>0.16600000000000001</v>
+        <v>0.183</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.27999999999999992</v>
+        <v>0.2629999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1986,21 +2150,21 @@
         <v>0.875</v>
       </c>
       <c r="E18">
-        <v>2.4500000000000001E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.10050000000000003</v>
+        <v>9.8099999999999965E-2</v>
       </c>
       <c r="G18">
         <v>0.60099999999999998</v>
       </c>
       <c r="H18">
-        <v>0.17</v>
+        <v>0.191</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.22899999999999998</v>
+        <f>1-H18-G18</f>
+        <v>0.20799999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2018,21 +2182,21 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="E19">
-        <v>2.6499999999999999E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>7.6500000000000012E-2</v>
+        <v>7.5099999999999945E-2</v>
       </c>
       <c r="G19">
         <v>0.63200000000000001</v>
       </c>
       <c r="H19">
-        <v>0.17299999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.19499999999999995</v>
+        <v>0.17099999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -2050,21 +2214,21 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="E20">
-        <v>2.75E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>6.8500000000000005E-2</v>
+        <v>6.6999999999999948E-2</v>
       </c>
       <c r="G20">
         <v>0.64700000000000002</v>
       </c>
       <c r="H20">
-        <v>0.17599999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.17700000000000005</v>
+        <v>0.14999999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2082,21 +2246,21 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="E21">
-        <v>2.8000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>6.2999999999999945E-2</v>
+        <v>6.1999999999999944E-2</v>
       </c>
       <c r="G21">
         <v>0.66500000000000004</v>
       </c>
       <c r="H21">
-        <v>0.17799999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.15700000000000003</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2114,21 +2278,21 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="E22">
-        <v>2.8500000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>5.0499999999999989E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="G22">
         <v>0.68200000000000005</v>
       </c>
       <c r="H22">
-        <v>0.184</v>
+        <v>0.214</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.13400000000000001</v>
+        <v>0.10399999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -2156,11 +2320,11 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="H23">
-        <v>0.186</v>
+        <v>0.217</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.1160000000000001</v>
+        <v>8.5000000000000075E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2188,11 +2352,11 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="H24">
-        <v>0.189</v>
+        <v>0.217</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.10499999999999998</v>
+        <v>7.7000000000000068E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2220,11 +2384,11 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="H25">
-        <v>0.189</v>
+        <v>0.217</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>9.7999999999999976E-2</v>
+        <v>7.0000000000000062E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2252,11 +2416,11 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="H26">
-        <v>0.189</v>
+        <v>0.217</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>8.4999999999999964E-2</v>
+        <v>5.7000000000000051E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2284,11 +2448,11 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="H27">
-        <v>0.189</v>
+        <v>0.217</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>7.8999999999999959E-2</v>
+        <v>5.1000000000000045E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2316,11 +2480,11 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="H28">
-        <v>0.193</v>
+        <v>0.217</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>7.0999999999999952E-2</v>
+        <v>4.7000000000000042E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2348,11 +2512,11 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="H29">
-        <v>0.19500000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>6.1999999999999944E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2380,11 +2544,11 @@
         <v>0.745</v>
       </c>
       <c r="H30">
-        <v>0.2</v>
+        <v>0.217</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>5.5000000000000049E-2</v>
+        <v>3.8000000000000034E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2412,11 +2576,11 @@
         <v>0.748</v>
       </c>
       <c r="H31">
-        <v>0.20300000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>4.8999999999999932E-2</v>
+        <v>3.5000000000000031E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2444,11 +2608,11 @@
         <v>0.754</v>
       </c>
       <c r="H32">
-        <v>0.20599999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.9000000000000026E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2476,11 +2640,11 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="H33">
-        <v>0.20599999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>3.7000000000000033E-2</v>
+        <v>2.6000000000000023E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2508,11 +2672,11 @@
         <v>0.76</v>
       </c>
       <c r="H34">
-        <v>0.20899999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>3.1000000000000028E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2540,11 +2704,11 @@
         <v>0.76</v>
       </c>
       <c r="H35">
-        <v>0.20899999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>3.1000000000000028E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2572,11 +2736,11 @@
         <v>0.76</v>
       </c>
       <c r="H36">
-        <v>0.20899999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>3.1000000000000028E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2604,11 +2768,11 @@
         <v>0.76</v>
       </c>
       <c r="H37">
-        <v>0.21299999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>2.7000000000000024E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2636,11 +2800,11 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="H38">
-        <v>0.21299999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>2.300000000000002E-2</v>
+        <v>1.9000000000000017E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">

--- a/SEIR_2_wave/data/calibration/hosp_data.xlsx
+++ b/SEIR_2_wave/data/calibration/hosp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5945F8B-1261-4AEC-9030-512FCCDD410B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89568631-5753-4348-A78D-06D947F76F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -75,18 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,7 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,1178 +113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P_D_Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.41E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.58E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.69E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.7900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9854-48BF-B0FC-B9A3EBD02004}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.128</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.183</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.217</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0164-4CD9-830F-A60A7F53D307}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="526756536"/>
-        <c:axId val="526756864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="526756536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="526756864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="526756864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="526756536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6988F29B-4E34-41FD-988B-C93DE41EDDF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,22 +430,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1661,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="C3">
-        <v>16.84</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1693,10 +515,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.33</v>
+        <v>1.3300000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>22.67</v>
+        <v>0.22670000000000001</v>
       </c>
       <c r="D4">
         <v>2.9000000000000001E-2</v>
@@ -1725,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>24.24</v>
+        <v>0.24239999999999998</v>
       </c>
       <c r="D5">
         <v>0.108</v>
@@ -1757,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.62</v>
+        <v>1.6200000000000003E-2</v>
       </c>
       <c r="C6">
-        <v>25.63</v>
+        <v>0.25629999999999997</v>
       </c>
       <c r="D6">
         <v>0.19500000000000001</v>
@@ -1789,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.74</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>26.74</v>
+        <v>0.26739999999999997</v>
       </c>
       <c r="D7">
         <v>0.27700000000000002</v>
@@ -1821,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.86</v>
+        <v>1.8600000000000002E-2</v>
       </c>
       <c r="C8">
-        <v>27.72</v>
+        <v>0.2772</v>
       </c>
       <c r="D8">
         <v>0.375</v>
@@ -1853,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.96</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>28.45</v>
+        <v>0.28449999999999998</v>
       </c>
       <c r="D9">
         <v>0.46500000000000002</v>
@@ -1885,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.04</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>29.11</v>
+        <v>0.29109999999999997</v>
       </c>
       <c r="D10">
         <v>0.54200000000000004</v>
@@ -1917,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>29.63</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="D11">
         <v>0.61499999999999999</v>
@@ -1949,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.15</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="C12">
-        <v>30.03</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="D12">
         <v>0.67800000000000005</v>
@@ -1981,10 +803,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.19</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>30.53</v>
+        <v>0.30530000000000002</v>
       </c>
       <c r="D13">
         <v>0.73299999999999998</v>
@@ -2013,10 +835,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.21</v>
+        <v>2.2099999999999998E-2</v>
       </c>
       <c r="C14">
-        <v>30.8</v>
+        <v>0.308</v>
       </c>
       <c r="D14">
         <v>0.77800000000000002</v>
@@ -2045,10 +867,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.23</v>
+        <v>2.23E-2</v>
       </c>
       <c r="C15">
-        <v>30.98</v>
+        <v>0.30980000000000002</v>
       </c>
       <c r="D15">
         <v>0.81399999999999995</v>
@@ -2077,10 +899,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.2599999999999998</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="C16">
-        <v>31.19</v>
+        <v>0.31190000000000001</v>
       </c>
       <c r="D16">
         <v>0.84099999999999997</v>
@@ -2109,10 +931,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.2599999999999998</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="C17">
-        <v>31.37</v>
+        <v>0.31370000000000003</v>
       </c>
       <c r="D17">
         <v>0.85799999999999998</v>
@@ -2141,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.27</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="C18">
-        <v>31.48</v>
+        <v>0.31480000000000002</v>
       </c>
       <c r="D18">
         <v>0.875</v>
@@ -2173,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.2799999999999998</v>
+        <v>2.2799999999999997E-2</v>
       </c>
       <c r="C19">
-        <v>31.54</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="D19">
         <v>0.89700000000000002</v>
@@ -2205,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.2799999999999998</v>
+        <v>2.2799999999999997E-2</v>
       </c>
       <c r="C20">
-        <v>31.66</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="D20">
         <v>0.90400000000000003</v>
@@ -2237,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.2999999999999998</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C21">
-        <v>31.72</v>
+        <v>0.31719999999999998</v>
       </c>
       <c r="D21">
         <v>0.90900000000000003</v>
@@ -2269,10 +1091,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.2999999999999998</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C22">
-        <v>31.82</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="D22">
         <v>0.92100000000000004</v>
@@ -2301,10 +1123,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.31</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="C23">
-        <v>31.82</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="D23">
         <v>0.93200000000000005</v>
@@ -2333,10 +1155,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.31</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D24">
         <v>0.93400000000000005</v>
@@ -2365,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.31</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="C25">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D25">
         <v>0.93600000000000005</v>
@@ -2397,10 +1219,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.31</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="C26">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D26">
         <v>0.93799999999999994</v>
@@ -2429,10 +1251,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.31</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="C27">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D27">
         <v>0.94399999999999995</v>
@@ -2461,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C28">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D28">
         <v>0.94399999999999995</v>
@@ -2493,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C29">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D29">
         <v>0.94899999999999995</v>
@@ -2525,10 +1347,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C30">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D30">
         <v>0.94899999999999995</v>
@@ -2557,10 +1379,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C31">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D31">
         <v>0.94899999999999995</v>
@@ -2589,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C32">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D32">
         <v>0.95099999999999996</v>
@@ -2621,10 +1443,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C33">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D33">
         <v>0.95099999999999996</v>
@@ -2653,10 +1475,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C34">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D34">
         <v>0.95599999999999996</v>
@@ -2685,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C35">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D35">
         <v>0.95799999999999996</v>
@@ -2717,10 +1539,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C36">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D36">
         <v>0.96099999999999997</v>
@@ -2749,10 +1571,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C37">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D37">
         <v>0.96299999999999997</v>
@@ -2781,10 +1603,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C38">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D38">
         <v>0.96599999999999997</v>
@@ -2813,10 +1635,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C39">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D39">
         <v>0.96599999999999997</v>
@@ -2845,10 +1667,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C40">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D40">
         <v>0.96599999999999997</v>
@@ -2877,10 +1699,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C41">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D41">
         <v>0.97099999999999997</v>
@@ -2909,10 +1731,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C42">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D42">
         <v>0.97099999999999997</v>
@@ -2941,10 +1763,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C43">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D43">
         <v>0.97099999999999997</v>
@@ -2973,10 +1795,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C44">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D44">
         <v>0.97099999999999997</v>
@@ -3005,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C45">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D45">
         <v>0.97099999999999997</v>
@@ -3037,10 +1859,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C46">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D46">
         <v>0.97099999999999997</v>
@@ -3069,10 +1891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C47">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D47">
         <v>0.97099999999999997</v>
@@ -3101,10 +1923,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C48">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D48">
         <v>0.97099999999999997</v>
@@ -3133,10 +1955,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C49">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D49">
         <v>0.97099999999999997</v>
@@ -3165,10 +1987,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C50">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D50">
         <v>0.97099999999999997</v>
@@ -3197,10 +2019,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C51">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D51">
         <v>0.97099999999999997</v>
@@ -3229,10 +2051,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C52">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D52">
         <v>0.97099999999999997</v>
@@ -3261,10 +2083,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.3199999999999998</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="C53">
-        <v>31.86</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="D53">
         <v>0.97099999999999997</v>
@@ -3289,6 +2111,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SEIR_2_wave/data/calibration/hosp_data.xlsx
+++ b/SEIR_2_wave/data/calibration/hosp_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89568631-5753-4348-A78D-06D947F76F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBACBCA-3C27-4A8E-A0AE-935FD5784AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +511,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A53" si="1">A3+1</f>
+        <f t="shared" ref="A4:A52" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -559,7 +559,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F53" si="2">1-E5-D5</f>
+        <f t="shared" ref="F5:F52" si="2">1-E5-D5</f>
         <v>0.88</v>
       </c>
       <c r="G5">
@@ -569,7 +569,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I53" si="3">1-H5-G5</f>
+        <f t="shared" ref="I5:I52" si="3">1-H5-G5</f>
         <v>0.90899999999999992</v>
       </c>
     </row>
@@ -2073,38 +2073,6 @@
         <v>0.217</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="C53">
-        <v>0.31859999999999999</v>
-      </c>
-      <c r="D53">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="E53">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="H53">
-        <v>0.217</v>
-      </c>
-      <c r="I53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
